--- a/Automobile/01-Data-Dictionary.xlsx
+++ b/Automobile/01-Data-Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>mpg:           continuous</t>
   </si>
@@ -36,12 +36,6 @@
     <t>acceleration:  continuous</t>
   </si>
   <si>
-    <t>model year:    multi-valued discrete</t>
-  </si>
-  <si>
-    <t>origin:        multi-valued discrete</t>
-  </si>
-  <si>
     <t>car name:      string (unique for each instance)</t>
   </si>
   <si>
@@ -49,6 +43,9 @@
   </si>
   <si>
     <t>fuel consumption in miles per gallon</t>
+  </si>
+  <si>
+    <t>origin:        string( Factory1 / Factory2 / Factory3</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,13 +416,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
@@ -455,17 +452,12 @@
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
